--- a/Interactive-window/start.xlsx
+++ b/Interactive-window/start.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Стартовый протокол" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Стартовый протокол" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,21 +568,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>пвиав</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -600,21 +600,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ку</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -632,21 +632,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>вввв</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -664,21 +664,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>нер</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>44444</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -727,20 +727,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
